--- a/Results/equipment_stats.xlsx
+++ b/Results/equipment_stats.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\Python\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E860D7A-FFFA-43AC-8544-4366A7FA9BE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{ACFE5176-3B0F-4939-BD42-F5F3795B26E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18345" yWindow="4080" windowWidth="15855" windowHeight="15555"/>
+    <workbookView xWindow="-17955" yWindow="2850" windowWidth="15855" windowHeight="15555"/>
   </bookViews>
   <sheets>
     <sheet name="equipment_stats" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">equipment_stats!$A$1:$E$481</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Resilience</t>
   </si>
@@ -29,6 +32,9 @@
   </si>
   <si>
     <t>Discipline</t>
+  </si>
+  <si>
+    <t>Totals</t>
   </si>
 </sst>
 </file>
@@ -171,7 +177,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -357,6 +363,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -518,9 +530,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -876,10 +889,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E30"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:E483"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="A19:E19"/>
+      <selection activeCell="H484" sqref="H484"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -894,8 +908,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>42</v>
       </c>
@@ -910,7 +927,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>38</v>
       </c>
@@ -921,11 +938,11 @@
         <v>30</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E28" si="0">SUM(A3:C3)</f>
+        <f t="shared" ref="E3:E66" si="0">SUM(A3:C3)</f>
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>34</v>
       </c>
@@ -940,386 +957,7193 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="B5">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C5">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B6">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C7">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B8">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C8">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>114</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B9">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C9">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>111</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B10">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C10">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>115</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B11">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C11">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B12">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C12">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="B13">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C13">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>101</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B14">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C14">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>112</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B15">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C15">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>109</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B16">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C16">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>113</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B17">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C17">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>123</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C18">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>52</v>
+      </c>
+      <c r="B19">
+        <v>26</v>
+      </c>
+      <c r="C19">
+        <v>49</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>40</v>
+      </c>
+      <c r="B20">
+        <v>14</v>
+      </c>
+      <c r="C20">
+        <v>42</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>36</v>
+      </c>
+      <c r="B21">
+        <v>23</v>
+      </c>
+      <c r="C21">
+        <v>34</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>32</v>
+      </c>
+      <c r="B22">
+        <v>31</v>
+      </c>
+      <c r="C22">
+        <v>34</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>32</v>
+      </c>
+      <c r="B23">
+        <v>25</v>
+      </c>
+      <c r="C23">
+        <v>31</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>18</v>
+      </c>
+      <c r="C24">
+        <v>30</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>41</v>
+      </c>
+      <c r="B25">
+        <v>18</v>
+      </c>
+      <c r="C25">
+        <v>50</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>41</v>
+      </c>
+      <c r="B26">
+        <v>6</v>
+      </c>
+      <c r="C26">
+        <v>43</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>37</v>
+      </c>
+      <c r="B27">
+        <v>15</v>
+      </c>
+      <c r="C27">
+        <v>35</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>33</v>
+      </c>
+      <c r="B28">
+        <v>23</v>
+      </c>
+      <c r="C28">
+        <v>35</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>33</v>
+      </c>
+      <c r="B29">
+        <v>17</v>
+      </c>
+      <c r="C29">
+        <v>32</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>33</v>
+      </c>
+      <c r="B30">
+        <v>10</v>
+      </c>
+      <c r="C30">
+        <v>31</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>42</v>
+      </c>
+      <c r="B31">
+        <v>10</v>
+      </c>
+      <c r="C31">
+        <v>51</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>42</v>
+      </c>
+      <c r="B32">
+        <v>18</v>
+      </c>
+      <c r="C32">
+        <v>39</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>38</v>
+      </c>
+      <c r="B33">
+        <v>27</v>
+      </c>
+      <c r="C33">
+        <v>31</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="B34">
+        <v>35</v>
+      </c>
+      <c r="C34">
+        <v>31</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>29</v>
+      </c>
+      <c r="C35">
+        <v>28</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>22</v>
+      </c>
+      <c r="C36">
+        <v>27</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>43</v>
+      </c>
+      <c r="B37">
+        <v>22</v>
+      </c>
+      <c r="C37">
+        <v>47</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>14</v>
+      </c>
+      <c r="C38">
+        <v>36</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>32</v>
+      </c>
+      <c r="B39">
+        <v>23</v>
+      </c>
+      <c r="C39">
+        <v>28</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>28</v>
+      </c>
+      <c r="B40">
+        <v>31</v>
+      </c>
+      <c r="C40">
+        <v>28</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>28</v>
+      </c>
+      <c r="B41">
+        <v>25</v>
+      </c>
+      <c r="C41">
+        <v>25</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>28</v>
+      </c>
+      <c r="B42">
+        <v>18</v>
+      </c>
+      <c r="C42">
+        <v>24</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>37</v>
+      </c>
+      <c r="B43">
+        <v>18</v>
+      </c>
+      <c r="C43">
+        <v>44</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>36</v>
+      </c>
+      <c r="B44">
+        <v>24</v>
+      </c>
+      <c r="C44">
+        <v>53</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="0"/>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>32</v>
+      </c>
+      <c r="B45">
+        <v>33</v>
+      </c>
+      <c r="C45">
+        <v>45</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>28</v>
+      </c>
+      <c r="B46">
+        <v>41</v>
+      </c>
+      <c r="C46">
+        <v>45</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>28</v>
+      </c>
+      <c r="B47">
+        <v>35</v>
+      </c>
+      <c r="C47">
+        <v>42</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>28</v>
+      </c>
+      <c r="B48">
+        <v>28</v>
+      </c>
+      <c r="C48">
+        <v>41</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="0"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>37</v>
+      </c>
+      <c r="B49">
+        <v>28</v>
+      </c>
+      <c r="C49">
+        <v>61</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="0"/>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>39</v>
+      </c>
+      <c r="B50">
+        <v>17</v>
+      </c>
+      <c r="C50">
+        <v>44</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>35</v>
+      </c>
+      <c r="B51">
+        <v>26</v>
+      </c>
+      <c r="C51">
+        <v>36</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="0"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>31</v>
+      </c>
+      <c r="B52">
+        <v>34</v>
+      </c>
+      <c r="C52">
+        <v>36</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="0"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>31</v>
+      </c>
+      <c r="B53">
+        <v>28</v>
+      </c>
+      <c r="C53">
+        <v>33</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="0"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>31</v>
+      </c>
+      <c r="B54">
+        <v>21</v>
+      </c>
+      <c r="C54">
+        <v>32</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>40</v>
+      </c>
+      <c r="B55">
+        <v>21</v>
+      </c>
+      <c r="C55">
+        <v>52</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="0"/>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>49</v>
+      </c>
+      <c r="B56">
+        <v>21</v>
+      </c>
+      <c r="C56">
+        <v>42</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="0"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>45</v>
+      </c>
+      <c r="B57">
+        <v>30</v>
+      </c>
+      <c r="C57">
+        <v>34</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>41</v>
+      </c>
+      <c r="B58">
+        <v>38</v>
+      </c>
+      <c r="C58">
+        <v>34</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="0"/>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>41</v>
+      </c>
+      <c r="B59">
+        <v>32</v>
+      </c>
+      <c r="C59">
+        <v>31</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="0"/>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>41</v>
+      </c>
+      <c r="B60">
+        <v>25</v>
+      </c>
+      <c r="C60">
+        <v>30</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>50</v>
+      </c>
+      <c r="B61">
+        <v>25</v>
+      </c>
+      <c r="C61">
+        <v>50</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>48</v>
+      </c>
+      <c r="B62">
+        <v>28</v>
+      </c>
+      <c r="C62">
+        <v>47</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="0"/>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>44</v>
+      </c>
+      <c r="B63">
+        <v>37</v>
+      </c>
+      <c r="C63">
+        <v>39</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64">
         <v>40</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B64">
         <v>45</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C64">
         <v>39</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1">
+      <c r="E64">
         <f t="shared" si="0"/>
         <v>124</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>33</v>
-      </c>
-      <c r="B20">
-        <v>19</v>
-      </c>
-      <c r="C20">
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>40</v>
+      </c>
+      <c r="B65">
         <v>39</v>
       </c>
-      <c r="E20">
-        <f t="shared" si="0"/>
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>29</v>
-      </c>
-      <c r="B21">
-        <v>28</v>
-      </c>
-      <c r="C21">
-        <v>31</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="0"/>
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>25</v>
-      </c>
-      <c r="B22">
+      <c r="C65">
         <v>36</v>
       </c>
-      <c r="C22">
-        <v>31</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="0"/>
-        <v>92</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>43</v>
-      </c>
-      <c r="B23">
-        <v>23</v>
-      </c>
-      <c r="C23">
-        <v>37</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="0"/>
-        <v>103</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>39</v>
-      </c>
-      <c r="B24">
-        <v>32</v>
-      </c>
-      <c r="C24">
-        <v>29</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>35</v>
-      </c>
-      <c r="B25">
-        <v>40</v>
-      </c>
-      <c r="C25">
-        <v>29</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="0"/>
-        <v>104</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>42</v>
-      </c>
-      <c r="B26">
-        <v>30</v>
-      </c>
-      <c r="C26">
-        <v>42</v>
-      </c>
-      <c r="E26">
-        <f t="shared" si="0"/>
-        <v>114</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>38</v>
-      </c>
-      <c r="B27">
-        <v>39</v>
-      </c>
-      <c r="C27">
-        <v>34</v>
-      </c>
-      <c r="E27">
-        <f t="shared" si="0"/>
-        <v>111</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>34</v>
-      </c>
-      <c r="B28">
-        <v>47</v>
-      </c>
-      <c r="C28">
-        <v>34</v>
-      </c>
-      <c r="E28">
+      <c r="E65">
         <f t="shared" si="0"/>
         <v>115</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <f>MAX(A2:A28)</f>
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>40</v>
+      </c>
+      <c r="B66">
+        <v>32</v>
+      </c>
+      <c r="C66">
+        <v>35</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="0"/>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>49</v>
+      </c>
+      <c r="B67" s="1">
+        <v>32</v>
+      </c>
+      <c r="C67" s="1">
+        <v>55</v>
+      </c>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1">
+        <f t="shared" ref="E67:E130" si="1">SUM(A67:C67)</f>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>37</v>
+      </c>
+      <c r="B68">
+        <v>20</v>
+      </c>
+      <c r="C68">
+        <v>48</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>33</v>
+      </c>
+      <c r="B69">
+        <v>29</v>
+      </c>
+      <c r="C69">
+        <v>40</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="1"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>29</v>
+      </c>
+      <c r="B70">
+        <v>37</v>
+      </c>
+      <c r="C70">
+        <v>40</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="1"/>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>29</v>
+      </c>
+      <c r="B71">
+        <v>31</v>
+      </c>
+      <c r="C71">
+        <v>37</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>29</v>
+      </c>
+      <c r="B72">
+        <v>24</v>
+      </c>
+      <c r="C72">
+        <v>36</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>38</v>
+      </c>
+      <c r="B73">
+        <v>24</v>
+      </c>
+      <c r="C73">
+        <v>56</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="1"/>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>38</v>
+      </c>
+      <c r="B74">
+        <v>12</v>
+      </c>
+      <c r="C74">
+        <v>49</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>34</v>
+      </c>
+      <c r="B75">
+        <v>21</v>
+      </c>
+      <c r="C75">
+        <v>41</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>30</v>
+      </c>
+      <c r="B76">
+        <v>29</v>
+      </c>
+      <c r="C76">
+        <v>41</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>30</v>
+      </c>
+      <c r="B77">
+        <v>23</v>
+      </c>
+      <c r="C77">
+        <v>38</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>30</v>
+      </c>
+      <c r="B78">
+        <v>16</v>
+      </c>
+      <c r="C78">
+        <v>37</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>39</v>
+      </c>
+      <c r="B79">
+        <v>16</v>
+      </c>
+      <c r="C79">
+        <v>57</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="1"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>39</v>
+      </c>
+      <c r="B80">
+        <v>24</v>
+      </c>
+      <c r="C80">
+        <v>45</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>35</v>
+      </c>
+      <c r="B81">
+        <v>33</v>
+      </c>
+      <c r="C81">
+        <v>37</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>31</v>
+      </c>
+      <c r="B82">
+        <v>41</v>
+      </c>
+      <c r="C82">
+        <v>37</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="1"/>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>31</v>
+      </c>
+      <c r="B83">
+        <v>35</v>
+      </c>
+      <c r="C83">
+        <v>34</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>31</v>
+      </c>
+      <c r="B84">
+        <v>28</v>
+      </c>
+      <c r="C84">
+        <v>33</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>40</v>
+      </c>
+      <c r="B85">
+        <v>28</v>
+      </c>
+      <c r="C85">
+        <v>53</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="1"/>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>33</v>
+      </c>
+      <c r="B86">
+        <v>20</v>
+      </c>
+      <c r="C86">
+        <v>42</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>29</v>
+      </c>
+      <c r="B87">
+        <v>29</v>
+      </c>
+      <c r="C87">
+        <v>34</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>25</v>
+      </c>
+      <c r="B88">
+        <v>37</v>
+      </c>
+      <c r="C88">
+        <v>34</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>25</v>
+      </c>
+      <c r="B89">
+        <v>31</v>
+      </c>
+      <c r="C89">
+        <v>31</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>25</v>
+      </c>
+      <c r="B90">
+        <v>24</v>
+      </c>
+      <c r="C90">
+        <v>30</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>34</v>
+      </c>
+      <c r="B91">
+        <v>24</v>
+      </c>
+      <c r="C91">
+        <v>50</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>33</v>
+      </c>
+      <c r="B92">
+        <v>30</v>
+      </c>
+      <c r="C92">
+        <v>59</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="1"/>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>29</v>
+      </c>
+      <c r="B93">
+        <v>39</v>
+      </c>
+      <c r="C93">
+        <v>51</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="1"/>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>25</v>
+      </c>
+      <c r="B94">
+        <v>47</v>
+      </c>
+      <c r="C94">
+        <v>51</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="1"/>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>25</v>
+      </c>
+      <c r="B95">
+        <v>41</v>
+      </c>
+      <c r="C95">
+        <v>48</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="1"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>25</v>
+      </c>
+      <c r="B96">
+        <v>34</v>
+      </c>
+      <c r="C96">
+        <v>47</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="1"/>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="2">
+        <v>34</v>
+      </c>
+      <c r="B97" s="2">
+        <v>34</v>
+      </c>
+      <c r="C97" s="2">
+        <v>67</v>
+      </c>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2">
+        <f t="shared" si="1"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>33</v>
+      </c>
+      <c r="B98">
+        <v>19</v>
+      </c>
+      <c r="C98">
+        <v>39</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>29</v>
+      </c>
+      <c r="B99">
+        <v>28</v>
+      </c>
+      <c r="C99">
+        <v>31</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>25</v>
+      </c>
+      <c r="B100">
+        <v>36</v>
+      </c>
+      <c r="C100">
+        <v>31</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>25</v>
+      </c>
+      <c r="B101">
+        <v>30</v>
+      </c>
+      <c r="C101">
+        <v>28</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>25</v>
+      </c>
+      <c r="B102">
+        <v>23</v>
+      </c>
+      <c r="C102">
+        <v>27</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>34</v>
+      </c>
+      <c r="B103">
+        <v>23</v>
+      </c>
+      <c r="C103">
+        <v>47</v>
+      </c>
+      <c r="E103">
+        <f t="shared" si="1"/>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>43</v>
+      </c>
+      <c r="B104">
+        <v>23</v>
+      </c>
+      <c r="C104">
+        <v>37</v>
+      </c>
+      <c r="E104">
+        <f t="shared" si="1"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>39</v>
+      </c>
+      <c r="B105">
+        <v>32</v>
+      </c>
+      <c r="C105">
+        <v>29</v>
+      </c>
+      <c r="E105">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>35</v>
+      </c>
+      <c r="B106">
+        <v>40</v>
+      </c>
+      <c r="C106">
+        <v>29</v>
+      </c>
+      <c r="E106">
+        <f t="shared" si="1"/>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>35</v>
+      </c>
+      <c r="B107">
+        <v>34</v>
+      </c>
+      <c r="C107">
+        <v>26</v>
+      </c>
+      <c r="E107">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>35</v>
+      </c>
+      <c r="B108">
+        <v>27</v>
+      </c>
+      <c r="C108">
+        <v>25</v>
+      </c>
+      <c r="E108">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>44</v>
+      </c>
+      <c r="B109">
+        <v>27</v>
+      </c>
+      <c r="C109">
+        <v>45</v>
+      </c>
+      <c r="E109">
+        <f t="shared" si="1"/>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>42</v>
+      </c>
+      <c r="B110">
+        <v>30</v>
+      </c>
+      <c r="C110">
+        <v>42</v>
+      </c>
+      <c r="E110">
+        <f t="shared" si="1"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>38</v>
+      </c>
+      <c r="B111">
+        <v>39</v>
+      </c>
+      <c r="C111">
+        <v>34</v>
+      </c>
+      <c r="E111">
+        <f t="shared" si="1"/>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>34</v>
+      </c>
+      <c r="B112">
+        <v>47</v>
+      </c>
+      <c r="C112">
+        <v>34</v>
+      </c>
+      <c r="E112">
+        <f t="shared" si="1"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>34</v>
+      </c>
+      <c r="B113">
+        <v>41</v>
+      </c>
+      <c r="C113">
+        <v>31</v>
+      </c>
+      <c r="E113">
+        <f t="shared" si="1"/>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>34</v>
+      </c>
+      <c r="B114">
+        <v>34</v>
+      </c>
+      <c r="C114">
+        <v>30</v>
+      </c>
+      <c r="E114">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>43</v>
+      </c>
+      <c r="B115">
+        <v>34</v>
+      </c>
+      <c r="C115">
+        <v>50</v>
+      </c>
+      <c r="E115">
+        <f t="shared" si="1"/>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>31</v>
+      </c>
+      <c r="B116">
+        <v>22</v>
+      </c>
+      <c r="C116">
+        <v>43</v>
+      </c>
+      <c r="E116">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>27</v>
+      </c>
+      <c r="B117">
+        <v>31</v>
+      </c>
+      <c r="C117">
+        <v>35</v>
+      </c>
+      <c r="E117">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>23</v>
+      </c>
+      <c r="B118">
+        <v>39</v>
+      </c>
+      <c r="C118">
+        <v>35</v>
+      </c>
+      <c r="E118">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>23</v>
+      </c>
+      <c r="B119">
+        <v>33</v>
+      </c>
+      <c r="C119">
+        <v>32</v>
+      </c>
+      <c r="E119">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>23</v>
+      </c>
+      <c r="B120">
+        <v>26</v>
+      </c>
+      <c r="C120">
+        <v>31</v>
+      </c>
+      <c r="E120">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>32</v>
+      </c>
+      <c r="B121">
+        <v>26</v>
+      </c>
+      <c r="C121">
+        <v>51</v>
+      </c>
+      <c r="E121">
+        <f t="shared" si="1"/>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>32</v>
+      </c>
+      <c r="B122">
+        <v>14</v>
+      </c>
+      <c r="C122">
+        <v>44</v>
+      </c>
+      <c r="E122">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>28</v>
+      </c>
+      <c r="B123">
+        <v>23</v>
+      </c>
+      <c r="C123">
+        <v>36</v>
+      </c>
+      <c r="E123">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>24</v>
+      </c>
+      <c r="B124">
+        <v>31</v>
+      </c>
+      <c r="C124">
+        <v>36</v>
+      </c>
+      <c r="E124">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>24</v>
+      </c>
+      <c r="B125">
+        <v>25</v>
+      </c>
+      <c r="C125">
+        <v>33</v>
+      </c>
+      <c r="E125">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>24</v>
+      </c>
+      <c r="B126">
+        <v>18</v>
+      </c>
+      <c r="C126">
+        <v>32</v>
+      </c>
+      <c r="E126">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>33</v>
+      </c>
+      <c r="B127">
+        <v>18</v>
+      </c>
+      <c r="C127">
         <v>52</v>
       </c>
-      <c r="B30">
-        <f t="shared" ref="B30:C30" si="1">MAX(B2:B28)</f>
+      <c r="E127">
+        <f t="shared" si="1"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>33</v>
+      </c>
+      <c r="B128">
+        <v>26</v>
+      </c>
+      <c r="C128">
+        <v>40</v>
+      </c>
+      <c r="E128">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>29</v>
+      </c>
+      <c r="B129">
+        <v>35</v>
+      </c>
+      <c r="C129">
+        <v>32</v>
+      </c>
+      <c r="E129">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>25</v>
+      </c>
+      <c r="B130">
+        <v>43</v>
+      </c>
+      <c r="C130">
+        <v>32</v>
+      </c>
+      <c r="E130">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>25</v>
+      </c>
+      <c r="B131">
+        <v>37</v>
+      </c>
+      <c r="C131">
+        <v>29</v>
+      </c>
+      <c r="E131">
+        <f t="shared" ref="E131:E194" si="2">SUM(A131:C131)</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>25</v>
+      </c>
+      <c r="B132">
+        <v>30</v>
+      </c>
+      <c r="C132">
+        <v>28</v>
+      </c>
+      <c r="E132">
+        <f t="shared" si="2"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>34</v>
+      </c>
+      <c r="B133">
+        <v>30</v>
+      </c>
+      <c r="C133">
+        <v>48</v>
+      </c>
+      <c r="E133">
+        <f t="shared" si="2"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>27</v>
+      </c>
+      <c r="B134">
+        <v>22</v>
+      </c>
+      <c r="C134">
+        <v>37</v>
+      </c>
+      <c r="E134">
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>23</v>
+      </c>
+      <c r="B135">
+        <v>31</v>
+      </c>
+      <c r="C135">
+        <v>29</v>
+      </c>
+      <c r="E135">
+        <f t="shared" si="2"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>19</v>
+      </c>
+      <c r="B136">
+        <v>39</v>
+      </c>
+      <c r="C136">
+        <v>29</v>
+      </c>
+      <c r="E136">
+        <f t="shared" si="2"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>19</v>
+      </c>
+      <c r="B137">
+        <v>33</v>
+      </c>
+      <c r="C137">
+        <v>26</v>
+      </c>
+      <c r="E137">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>19</v>
+      </c>
+      <c r="B138">
+        <v>26</v>
+      </c>
+      <c r="C138">
+        <v>25</v>
+      </c>
+      <c r="E138">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>28</v>
+      </c>
+      <c r="B139">
+        <v>26</v>
+      </c>
+      <c r="C139">
+        <v>45</v>
+      </c>
+      <c r="E139">
+        <f t="shared" si="2"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>27</v>
+      </c>
+      <c r="B140">
+        <v>32</v>
+      </c>
+      <c r="C140">
+        <v>54</v>
+      </c>
+      <c r="E140">
+        <f t="shared" si="2"/>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>23</v>
+      </c>
+      <c r="B141">
+        <v>41</v>
+      </c>
+      <c r="C141">
+        <v>46</v>
+      </c>
+      <c r="E141">
+        <f t="shared" si="2"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>19</v>
+      </c>
+      <c r="B142">
+        <v>49</v>
+      </c>
+      <c r="C142">
+        <v>46</v>
+      </c>
+      <c r="E142">
+        <f t="shared" si="2"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>19</v>
+      </c>
+      <c r="B143">
+        <v>43</v>
+      </c>
+      <c r="C143">
+        <v>43</v>
+      </c>
+      <c r="E143">
+        <f t="shared" si="2"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>19</v>
+      </c>
+      <c r="B144">
+        <v>36</v>
+      </c>
+      <c r="C144">
+        <v>42</v>
+      </c>
+      <c r="E144">
+        <f t="shared" si="2"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>28</v>
+      </c>
+      <c r="B145">
+        <v>36</v>
+      </c>
+      <c r="C145">
+        <v>62</v>
+      </c>
+      <c r="E145">
+        <f t="shared" si="2"/>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>29</v>
+      </c>
+      <c r="B146">
+        <v>11</v>
+      </c>
+      <c r="C146">
+        <v>43</v>
+      </c>
+      <c r="E146">
+        <f t="shared" si="2"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>25</v>
+      </c>
+      <c r="B147">
+        <v>20</v>
+      </c>
+      <c r="C147">
+        <v>35</v>
+      </c>
+      <c r="E147">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>21</v>
+      </c>
+      <c r="B148">
+        <v>28</v>
+      </c>
+      <c r="C148">
+        <v>35</v>
+      </c>
+      <c r="E148">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>21</v>
+      </c>
+      <c r="B149">
+        <v>22</v>
+      </c>
+      <c r="C149">
+        <v>32</v>
+      </c>
+      <c r="E149">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>21</v>
+      </c>
+      <c r="B150">
+        <v>15</v>
+      </c>
+      <c r="C150">
+        <v>31</v>
+      </c>
+      <c r="E150">
+        <f t="shared" si="2"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>30</v>
+      </c>
+      <c r="B151">
+        <v>15</v>
+      </c>
+      <c r="C151">
+        <v>51</v>
+      </c>
+      <c r="E151">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>39</v>
+      </c>
+      <c r="B152">
+        <v>15</v>
+      </c>
+      <c r="C152">
+        <v>41</v>
+      </c>
+      <c r="E152">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>35</v>
+      </c>
+      <c r="B153">
+        <v>24</v>
+      </c>
+      <c r="C153">
+        <v>33</v>
+      </c>
+      <c r="E153">
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>31</v>
+      </c>
+      <c r="B154">
+        <v>32</v>
+      </c>
+      <c r="C154">
+        <v>33</v>
+      </c>
+      <c r="E154">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>31</v>
+      </c>
+      <c r="B155">
+        <v>26</v>
+      </c>
+      <c r="C155">
+        <v>30</v>
+      </c>
+      <c r="E155">
+        <f t="shared" si="2"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>31</v>
+      </c>
+      <c r="B156">
+        <v>19</v>
+      </c>
+      <c r="C156">
+        <v>29</v>
+      </c>
+      <c r="E156">
+        <f t="shared" si="2"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>40</v>
+      </c>
+      <c r="B157">
+        <v>19</v>
+      </c>
+      <c r="C157">
+        <v>49</v>
+      </c>
+      <c r="E157">
+        <f t="shared" si="2"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>38</v>
+      </c>
+      <c r="B158">
+        <v>22</v>
+      </c>
+      <c r="C158">
+        <v>46</v>
+      </c>
+      <c r="E158">
+        <f t="shared" si="2"/>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>34</v>
+      </c>
+      <c r="B159">
+        <v>31</v>
+      </c>
+      <c r="C159">
+        <v>38</v>
+      </c>
+      <c r="E159">
+        <f t="shared" si="2"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>30</v>
+      </c>
+      <c r="B160">
+        <v>39</v>
+      </c>
+      <c r="C160">
+        <v>38</v>
+      </c>
+      <c r="E160">
+        <f t="shared" si="2"/>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>30</v>
+      </c>
+      <c r="B161">
+        <v>33</v>
+      </c>
+      <c r="C161">
+        <v>35</v>
+      </c>
+      <c r="E161">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>30</v>
+      </c>
+      <c r="B162">
+        <v>26</v>
+      </c>
+      <c r="C162">
+        <v>34</v>
+      </c>
+      <c r="E162">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>39</v>
+      </c>
+      <c r="B163">
+        <v>26</v>
+      </c>
+      <c r="C163">
+        <v>54</v>
+      </c>
+      <c r="E163">
+        <f t="shared" si="2"/>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>27</v>
+      </c>
+      <c r="B164">
+        <v>14</v>
+      </c>
+      <c r="C164">
         <v>47</v>
       </c>
-      <c r="C30">
-        <f t="shared" si="1"/>
+      <c r="E164">
+        <f t="shared" si="2"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>23</v>
+      </c>
+      <c r="B165">
+        <v>23</v>
+      </c>
+      <c r="C165">
+        <v>39</v>
+      </c>
+      <c r="E165">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>19</v>
+      </c>
+      <c r="B166">
+        <v>31</v>
+      </c>
+      <c r="C166">
+        <v>39</v>
+      </c>
+      <c r="E166">
+        <f t="shared" si="2"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>19</v>
+      </c>
+      <c r="B167">
+        <v>25</v>
+      </c>
+      <c r="C167">
+        <v>36</v>
+      </c>
+      <c r="E167">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>19</v>
+      </c>
+      <c r="B168">
+        <v>18</v>
+      </c>
+      <c r="C168">
+        <v>35</v>
+      </c>
+      <c r="E168">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>28</v>
+      </c>
+      <c r="B169">
+        <v>18</v>
+      </c>
+      <c r="C169">
+        <v>55</v>
+      </c>
+      <c r="E169">
+        <f t="shared" si="2"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>28</v>
+      </c>
+      <c r="B170">
+        <v>6</v>
+      </c>
+      <c r="C170">
+        <v>48</v>
+      </c>
+      <c r="E170">
+        <f t="shared" si="2"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>24</v>
+      </c>
+      <c r="B171">
+        <v>15</v>
+      </c>
+      <c r="C171">
+        <v>40</v>
+      </c>
+      <c r="E171">
+        <f t="shared" si="2"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>20</v>
+      </c>
+      <c r="B172">
+        <v>23</v>
+      </c>
+      <c r="C172">
+        <v>40</v>
+      </c>
+      <c r="E172">
+        <f t="shared" si="2"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>20</v>
+      </c>
+      <c r="B173">
+        <v>17</v>
+      </c>
+      <c r="C173">
+        <v>37</v>
+      </c>
+      <c r="E173">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>20</v>
+      </c>
+      <c r="B174">
+        <v>10</v>
+      </c>
+      <c r="C174">
+        <v>36</v>
+      </c>
+      <c r="E174">
+        <f t="shared" si="2"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>29</v>
+      </c>
+      <c r="B175">
+        <v>10</v>
+      </c>
+      <c r="C175">
+        <v>56</v>
+      </c>
+      <c r="E175">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>29</v>
+      </c>
+      <c r="B176">
+        <v>18</v>
+      </c>
+      <c r="C176">
+        <v>44</v>
+      </c>
+      <c r="E176">
+        <f t="shared" si="2"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>25</v>
+      </c>
+      <c r="B177">
+        <v>27</v>
+      </c>
+      <c r="C177">
+        <v>36</v>
+      </c>
+      <c r="E177">
+        <f t="shared" si="2"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>21</v>
+      </c>
+      <c r="B178">
+        <v>35</v>
+      </c>
+      <c r="C178">
+        <v>36</v>
+      </c>
+      <c r="E178">
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>21</v>
+      </c>
+      <c r="B179">
+        <v>29</v>
+      </c>
+      <c r="C179">
+        <v>33</v>
+      </c>
+      <c r="E179">
+        <f t="shared" si="2"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>21</v>
+      </c>
+      <c r="B180">
+        <v>22</v>
+      </c>
+      <c r="C180">
+        <v>32</v>
+      </c>
+      <c r="E180">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>30</v>
+      </c>
+      <c r="B181">
+        <v>22</v>
+      </c>
+      <c r="C181">
+        <v>52</v>
+      </c>
+      <c r="E181">
+        <f t="shared" si="2"/>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>23</v>
+      </c>
+      <c r="B182">
+        <v>14</v>
+      </c>
+      <c r="C182">
+        <v>41</v>
+      </c>
+      <c r="E182">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>19</v>
+      </c>
+      <c r="B183">
+        <v>23</v>
+      </c>
+      <c r="C183">
+        <v>33</v>
+      </c>
+      <c r="E183">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>15</v>
+      </c>
+      <c r="B184">
+        <v>31</v>
+      </c>
+      <c r="C184">
+        <v>33</v>
+      </c>
+      <c r="E184">
+        <f t="shared" si="2"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>15</v>
+      </c>
+      <c r="B185">
+        <v>25</v>
+      </c>
+      <c r="C185">
+        <v>30</v>
+      </c>
+      <c r="E185">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>15</v>
+      </c>
+      <c r="B186">
+        <v>18</v>
+      </c>
+      <c r="C186">
+        <v>29</v>
+      </c>
+      <c r="E186">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>24</v>
+      </c>
+      <c r="B187">
+        <v>18</v>
+      </c>
+      <c r="C187">
+        <v>49</v>
+      </c>
+      <c r="E187">
+        <f t="shared" si="2"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>23</v>
+      </c>
+      <c r="B188">
+        <v>24</v>
+      </c>
+      <c r="C188">
+        <v>58</v>
+      </c>
+      <c r="E188">
+        <f t="shared" si="2"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>19</v>
+      </c>
+      <c r="B189">
+        <v>33</v>
+      </c>
+      <c r="C189">
+        <v>50</v>
+      </c>
+      <c r="E189">
+        <f t="shared" si="2"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>15</v>
+      </c>
+      <c r="B190">
+        <v>41</v>
+      </c>
+      <c r="C190">
+        <v>50</v>
+      </c>
+      <c r="E190">
+        <f t="shared" si="2"/>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>15</v>
+      </c>
+      <c r="B191">
+        <v>35</v>
+      </c>
+      <c r="C191">
         <v>47</v>
       </c>
-      <c r="E30">
-        <f>MAX(E2:E28)</f>
+      <c r="E191">
+        <f t="shared" si="2"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>15</v>
+      </c>
+      <c r="B192">
+        <v>28</v>
+      </c>
+      <c r="C192">
+        <v>46</v>
+      </c>
+      <c r="E192">
+        <f t="shared" si="2"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>24</v>
+      </c>
+      <c r="B193">
+        <v>28</v>
+      </c>
+      <c r="C193">
+        <v>66</v>
+      </c>
+      <c r="E193">
+        <f t="shared" si="2"/>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>34</v>
+      </c>
+      <c r="B194">
+        <v>17</v>
+      </c>
+      <c r="C194">
+        <v>35</v>
+      </c>
+      <c r="E194">
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>30</v>
+      </c>
+      <c r="B195">
+        <v>26</v>
+      </c>
+      <c r="C195">
+        <v>27</v>
+      </c>
+      <c r="E195">
+        <f t="shared" ref="E195:E258" si="3">SUM(A195:C195)</f>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>26</v>
+      </c>
+      <c r="B196">
+        <v>34</v>
+      </c>
+      <c r="C196">
+        <v>27</v>
+      </c>
+      <c r="E196">
+        <f t="shared" si="3"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>26</v>
+      </c>
+      <c r="B197">
+        <v>28</v>
+      </c>
+      <c r="C197">
+        <v>24</v>
+      </c>
+      <c r="E197">
+        <f t="shared" si="3"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>26</v>
+      </c>
+      <c r="B198">
+        <v>21</v>
+      </c>
+      <c r="C198">
+        <v>23</v>
+      </c>
+      <c r="E198">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>35</v>
+      </c>
+      <c r="B199">
+        <v>21</v>
+      </c>
+      <c r="C199">
+        <v>43</v>
+      </c>
+      <c r="E199">
+        <f t="shared" si="3"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>44</v>
+      </c>
+      <c r="B200">
+        <v>21</v>
+      </c>
+      <c r="C200">
+        <v>33</v>
+      </c>
+      <c r="E200">
+        <f t="shared" si="3"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>40</v>
+      </c>
+      <c r="B201">
+        <v>30</v>
+      </c>
+      <c r="C201">
+        <v>25</v>
+      </c>
+      <c r="E201">
+        <f t="shared" si="3"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>36</v>
+      </c>
+      <c r="B202">
+        <v>38</v>
+      </c>
+      <c r="C202">
+        <v>25</v>
+      </c>
+      <c r="E202">
+        <f t="shared" si="3"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>36</v>
+      </c>
+      <c r="B203">
+        <v>32</v>
+      </c>
+      <c r="C203">
+        <v>22</v>
+      </c>
+      <c r="E203">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>36</v>
+      </c>
+      <c r="B204">
+        <v>25</v>
+      </c>
+      <c r="C204">
+        <v>21</v>
+      </c>
+      <c r="E204">
+        <f t="shared" si="3"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>45</v>
+      </c>
+      <c r="B205">
+        <v>25</v>
+      </c>
+      <c r="C205">
+        <v>41</v>
+      </c>
+      <c r="E205">
+        <f t="shared" si="3"/>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>43</v>
+      </c>
+      <c r="B206">
+        <v>28</v>
+      </c>
+      <c r="C206">
+        <v>38</v>
+      </c>
+      <c r="E206">
+        <f t="shared" si="3"/>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>39</v>
+      </c>
+      <c r="B207">
+        <v>37</v>
+      </c>
+      <c r="C207">
+        <v>30</v>
+      </c>
+      <c r="E207">
+        <f t="shared" si="3"/>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>35</v>
+      </c>
+      <c r="B208">
+        <v>45</v>
+      </c>
+      <c r="C208">
+        <v>30</v>
+      </c>
+      <c r="E208">
+        <f t="shared" si="3"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>35</v>
+      </c>
+      <c r="B209">
+        <v>39</v>
+      </c>
+      <c r="C209">
+        <v>27</v>
+      </c>
+      <c r="E209">
+        <f t="shared" si="3"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>35</v>
+      </c>
+      <c r="B210">
+        <v>32</v>
+      </c>
+      <c r="C210">
+        <v>26</v>
+      </c>
+      <c r="E210">
+        <f t="shared" si="3"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>44</v>
+      </c>
+      <c r="B211">
+        <v>32</v>
+      </c>
+      <c r="C211">
+        <v>46</v>
+      </c>
+      <c r="E211">
+        <f t="shared" si="3"/>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>32</v>
+      </c>
+      <c r="B212">
+        <v>20</v>
+      </c>
+      <c r="C212">
+        <v>39</v>
+      </c>
+      <c r="E212">
+        <f t="shared" si="3"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>28</v>
+      </c>
+      <c r="B213">
+        <v>29</v>
+      </c>
+      <c r="C213">
+        <v>31</v>
+      </c>
+      <c r="E213">
+        <f t="shared" si="3"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>24</v>
+      </c>
+      <c r="B214">
+        <v>37</v>
+      </c>
+      <c r="C214">
+        <v>31</v>
+      </c>
+      <c r="E214">
+        <f t="shared" si="3"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>24</v>
+      </c>
+      <c r="B215">
+        <v>31</v>
+      </c>
+      <c r="C215">
+        <v>28</v>
+      </c>
+      <c r="E215">
+        <f t="shared" si="3"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>24</v>
+      </c>
+      <c r="B216">
+        <v>24</v>
+      </c>
+      <c r="C216">
+        <v>27</v>
+      </c>
+      <c r="E216">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>33</v>
+      </c>
+      <c r="B217">
+        <v>24</v>
+      </c>
+      <c r="C217">
+        <v>47</v>
+      </c>
+      <c r="E217">
+        <f t="shared" si="3"/>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>33</v>
+      </c>
+      <c r="B218">
+        <v>12</v>
+      </c>
+      <c r="C218">
+        <v>40</v>
+      </c>
+      <c r="E218">
+        <f t="shared" si="3"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>29</v>
+      </c>
+      <c r="B219">
+        <v>21</v>
+      </c>
+      <c r="C219">
+        <v>32</v>
+      </c>
+      <c r="E219">
+        <f t="shared" si="3"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>25</v>
+      </c>
+      <c r="B220">
+        <v>29</v>
+      </c>
+      <c r="C220">
+        <v>32</v>
+      </c>
+      <c r="E220">
+        <f t="shared" si="3"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>25</v>
+      </c>
+      <c r="B221">
+        <v>23</v>
+      </c>
+      <c r="C221">
+        <v>29</v>
+      </c>
+      <c r="E221">
+        <f t="shared" si="3"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>25</v>
+      </c>
+      <c r="B222">
+        <v>16</v>
+      </c>
+      <c r="C222">
+        <v>28</v>
+      </c>
+      <c r="E222">
+        <f t="shared" si="3"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>34</v>
+      </c>
+      <c r="B223">
+        <v>16</v>
+      </c>
+      <c r="C223">
+        <v>48</v>
+      </c>
+      <c r="E223">
+        <f t="shared" si="3"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>34</v>
+      </c>
+      <c r="B224">
+        <v>24</v>
+      </c>
+      <c r="C224">
+        <v>36</v>
+      </c>
+      <c r="E224">
+        <f t="shared" si="3"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>30</v>
+      </c>
+      <c r="B225">
+        <v>33</v>
+      </c>
+      <c r="C225">
+        <v>28</v>
+      </c>
+      <c r="E225">
+        <f t="shared" si="3"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>26</v>
+      </c>
+      <c r="B226">
+        <v>41</v>
+      </c>
+      <c r="C226">
+        <v>28</v>
+      </c>
+      <c r="E226">
+        <f t="shared" si="3"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>26</v>
+      </c>
+      <c r="B227">
+        <v>35</v>
+      </c>
+      <c r="C227">
+        <v>25</v>
+      </c>
+      <c r="E227">
+        <f t="shared" si="3"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>26</v>
+      </c>
+      <c r="B228">
+        <v>28</v>
+      </c>
+      <c r="C228">
+        <v>24</v>
+      </c>
+      <c r="E228">
+        <f t="shared" si="3"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>35</v>
+      </c>
+      <c r="B229">
+        <v>28</v>
+      </c>
+      <c r="C229">
+        <v>44</v>
+      </c>
+      <c r="E229">
+        <f t="shared" si="3"/>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>28</v>
+      </c>
+      <c r="B230">
+        <v>20</v>
+      </c>
+      <c r="C230">
+        <v>33</v>
+      </c>
+      <c r="E230">
+        <f t="shared" si="3"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>24</v>
+      </c>
+      <c r="B231">
+        <v>29</v>
+      </c>
+      <c r="C231">
+        <v>25</v>
+      </c>
+      <c r="E231">
+        <f t="shared" si="3"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>20</v>
+      </c>
+      <c r="B232">
+        <v>37</v>
+      </c>
+      <c r="C232">
+        <v>25</v>
+      </c>
+      <c r="E232">
+        <f t="shared" si="3"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>20</v>
+      </c>
+      <c r="B233">
+        <v>31</v>
+      </c>
+      <c r="C233">
+        <v>22</v>
+      </c>
+      <c r="E233">
+        <f t="shared" si="3"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>20</v>
+      </c>
+      <c r="B234">
+        <v>24</v>
+      </c>
+      <c r="C234">
+        <v>21</v>
+      </c>
+      <c r="E234">
+        <f t="shared" si="3"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>29</v>
+      </c>
+      <c r="B235">
+        <v>24</v>
+      </c>
+      <c r="C235">
+        <v>41</v>
+      </c>
+      <c r="E235">
+        <f t="shared" si="3"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>28</v>
+      </c>
+      <c r="B236">
+        <v>30</v>
+      </c>
+      <c r="C236">
+        <v>50</v>
+      </c>
+      <c r="E236">
+        <f t="shared" si="3"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>24</v>
+      </c>
+      <c r="B237">
+        <v>39</v>
+      </c>
+      <c r="C237">
+        <v>42</v>
+      </c>
+      <c r="E237">
+        <f t="shared" si="3"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>20</v>
+      </c>
+      <c r="B238">
+        <v>47</v>
+      </c>
+      <c r="C238">
+        <v>42</v>
+      </c>
+      <c r="E238">
+        <f t="shared" si="3"/>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>20</v>
+      </c>
+      <c r="B239">
+        <v>41</v>
+      </c>
+      <c r="C239">
+        <v>39</v>
+      </c>
+      <c r="E239">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>20</v>
+      </c>
+      <c r="B240">
+        <v>34</v>
+      </c>
+      <c r="C240">
+        <v>38</v>
+      </c>
+      <c r="E240">
+        <f t="shared" si="3"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>29</v>
+      </c>
+      <c r="B241">
+        <v>34</v>
+      </c>
+      <c r="C241">
+        <v>58</v>
+      </c>
+      <c r="E241">
+        <f t="shared" si="3"/>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>36</v>
+      </c>
+      <c r="B242">
+        <v>24</v>
+      </c>
+      <c r="C242">
+        <v>36</v>
+      </c>
+      <c r="E242">
+        <f t="shared" si="3"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>32</v>
+      </c>
+      <c r="B243">
+        <v>33</v>
+      </c>
+      <c r="C243">
+        <v>28</v>
+      </c>
+      <c r="E243">
+        <f t="shared" si="3"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>28</v>
+      </c>
+      <c r="B244">
+        <v>41</v>
+      </c>
+      <c r="C244">
+        <v>28</v>
+      </c>
+      <c r="E244">
+        <f t="shared" si="3"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>28</v>
+      </c>
+      <c r="B245">
+        <v>35</v>
+      </c>
+      <c r="C245">
+        <v>25</v>
+      </c>
+      <c r="E245">
+        <f t="shared" si="3"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>28</v>
+      </c>
+      <c r="B246">
+        <v>28</v>
+      </c>
+      <c r="C246">
+        <v>24</v>
+      </c>
+      <c r="E246">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>37</v>
+      </c>
+      <c r="B247">
+        <v>28</v>
+      </c>
+      <c r="C247">
+        <v>44</v>
+      </c>
+      <c r="E247">
+        <f t="shared" si="3"/>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>46</v>
+      </c>
+      <c r="B248">
+        <v>28</v>
+      </c>
+      <c r="C248">
+        <v>34</v>
+      </c>
+      <c r="E248">
+        <f t="shared" si="3"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>42</v>
+      </c>
+      <c r="B249">
+        <v>37</v>
+      </c>
+      <c r="C249">
+        <v>26</v>
+      </c>
+      <c r="E249">
+        <f t="shared" si="3"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>38</v>
+      </c>
+      <c r="B250">
+        <v>45</v>
+      </c>
+      <c r="C250">
+        <v>26</v>
+      </c>
+      <c r="E250">
+        <f t="shared" si="3"/>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>38</v>
+      </c>
+      <c r="B251">
+        <v>39</v>
+      </c>
+      <c r="C251">
+        <v>23</v>
+      </c>
+      <c r="E251">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>38</v>
+      </c>
+      <c r="B252">
+        <v>32</v>
+      </c>
+      <c r="C252">
+        <v>22</v>
+      </c>
+      <c r="E252">
+        <f t="shared" si="3"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>47</v>
+      </c>
+      <c r="B253">
+        <v>32</v>
+      </c>
+      <c r="C253">
+        <v>42</v>
+      </c>
+      <c r="E253">
+        <f t="shared" si="3"/>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>45</v>
+      </c>
+      <c r="B254">
+        <v>35</v>
+      </c>
+      <c r="C254">
+        <v>39</v>
+      </c>
+      <c r="E254">
+        <f t="shared" si="3"/>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>41</v>
+      </c>
+      <c r="B255">
+        <v>44</v>
+      </c>
+      <c r="C255">
+        <v>31</v>
+      </c>
+      <c r="E255">
+        <f t="shared" si="3"/>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>37</v>
+      </c>
+      <c r="B256">
+        <v>52</v>
+      </c>
+      <c r="C256">
+        <v>31</v>
+      </c>
+      <c r="E256">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>37</v>
+      </c>
+      <c r="B257">
+        <v>46</v>
+      </c>
+      <c r="C257">
+        <v>28</v>
+      </c>
+      <c r="E257">
+        <f t="shared" si="3"/>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>37</v>
+      </c>
+      <c r="B258">
+        <v>39</v>
+      </c>
+      <c r="C258">
+        <v>27</v>
+      </c>
+      <c r="E258">
+        <f t="shared" si="3"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A259" s="2">
+        <v>46</v>
+      </c>
+      <c r="B259" s="2">
+        <v>39</v>
+      </c>
+      <c r="C259" s="2">
+        <v>47</v>
+      </c>
+      <c r="D259" s="2"/>
+      <c r="E259" s="2">
+        <f t="shared" ref="E259:E322" si="4">SUM(A259:C259)</f>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>34</v>
+      </c>
+      <c r="B260">
+        <v>27</v>
+      </c>
+      <c r="C260">
+        <v>40</v>
+      </c>
+      <c r="E260">
+        <f t="shared" si="4"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>30</v>
+      </c>
+      <c r="B261">
+        <v>36</v>
+      </c>
+      <c r="C261">
+        <v>32</v>
+      </c>
+      <c r="E261">
+        <f t="shared" si="4"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>26</v>
+      </c>
+      <c r="B262">
+        <v>44</v>
+      </c>
+      <c r="C262">
+        <v>32</v>
+      </c>
+      <c r="E262">
+        <f t="shared" si="4"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>26</v>
+      </c>
+      <c r="B263">
+        <v>38</v>
+      </c>
+      <c r="C263">
+        <v>29</v>
+      </c>
+      <c r="E263">
+        <f t="shared" si="4"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>26</v>
+      </c>
+      <c r="B264">
+        <v>31</v>
+      </c>
+      <c r="C264">
+        <v>28</v>
+      </c>
+      <c r="E264">
+        <f t="shared" si="4"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>35</v>
+      </c>
+      <c r="B265">
+        <v>31</v>
+      </c>
+      <c r="C265">
+        <v>48</v>
+      </c>
+      <c r="E265">
+        <f t="shared" si="4"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>35</v>
+      </c>
+      <c r="B266">
+        <v>19</v>
+      </c>
+      <c r="C266">
+        <v>41</v>
+      </c>
+      <c r="E266">
+        <f t="shared" si="4"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>31</v>
+      </c>
+      <c r="B267">
+        <v>28</v>
+      </c>
+      <c r="C267">
+        <v>33</v>
+      </c>
+      <c r="E267">
+        <f t="shared" si="4"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>27</v>
+      </c>
+      <c r="B268">
+        <v>36</v>
+      </c>
+      <c r="C268">
+        <v>33</v>
+      </c>
+      <c r="E268">
+        <f t="shared" si="4"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>27</v>
+      </c>
+      <c r="B269">
+        <v>30</v>
+      </c>
+      <c r="C269">
+        <v>30</v>
+      </c>
+      <c r="E269">
+        <f t="shared" si="4"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>27</v>
+      </c>
+      <c r="B270">
+        <v>23</v>
+      </c>
+      <c r="C270">
+        <v>29</v>
+      </c>
+      <c r="E270">
+        <f t="shared" si="4"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>36</v>
+      </c>
+      <c r="B271">
+        <v>23</v>
+      </c>
+      <c r="C271">
+        <v>49</v>
+      </c>
+      <c r="E271">
+        <f t="shared" si="4"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>36</v>
+      </c>
+      <c r="B272">
+        <v>31</v>
+      </c>
+      <c r="C272">
+        <v>37</v>
+      </c>
+      <c r="E272">
+        <f t="shared" si="4"/>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>32</v>
+      </c>
+      <c r="B273">
+        <v>40</v>
+      </c>
+      <c r="C273">
+        <v>29</v>
+      </c>
+      <c r="E273">
+        <f t="shared" si="4"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>28</v>
+      </c>
+      <c r="B274">
+        <v>48</v>
+      </c>
+      <c r="C274">
+        <v>29</v>
+      </c>
+      <c r="E274">
+        <f t="shared" si="4"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>28</v>
+      </c>
+      <c r="B275">
+        <v>42</v>
+      </c>
+      <c r="C275">
+        <v>26</v>
+      </c>
+      <c r="E275">
+        <f t="shared" si="4"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>28</v>
+      </c>
+      <c r="B276">
+        <v>35</v>
+      </c>
+      <c r="C276">
+        <v>25</v>
+      </c>
+      <c r="E276">
+        <f t="shared" si="4"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>37</v>
+      </c>
+      <c r="B277">
+        <v>35</v>
+      </c>
+      <c r="C277">
+        <v>45</v>
+      </c>
+      <c r="E277">
+        <f t="shared" si="4"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>30</v>
+      </c>
+      <c r="B278">
+        <v>27</v>
+      </c>
+      <c r="C278">
+        <v>34</v>
+      </c>
+      <c r="E278">
+        <f t="shared" si="4"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>26</v>
+      </c>
+      <c r="B279">
+        <v>36</v>
+      </c>
+      <c r="C279">
+        <v>26</v>
+      </c>
+      <c r="E279">
+        <f t="shared" si="4"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>22</v>
+      </c>
+      <c r="B280">
+        <v>44</v>
+      </c>
+      <c r="C280">
+        <v>26</v>
+      </c>
+      <c r="E280">
+        <f t="shared" si="4"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>22</v>
+      </c>
+      <c r="B281">
+        <v>38</v>
+      </c>
+      <c r="C281">
+        <v>23</v>
+      </c>
+      <c r="E281">
+        <f t="shared" si="4"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>22</v>
+      </c>
+      <c r="B282">
+        <v>31</v>
+      </c>
+      <c r="C282">
+        <v>22</v>
+      </c>
+      <c r="E282">
+        <f t="shared" si="4"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>31</v>
+      </c>
+      <c r="B283">
+        <v>31</v>
+      </c>
+      <c r="C283">
+        <v>42</v>
+      </c>
+      <c r="E283">
+        <f t="shared" si="4"/>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>30</v>
+      </c>
+      <c r="B284">
+        <v>37</v>
+      </c>
+      <c r="C284">
+        <v>51</v>
+      </c>
+      <c r="E284">
+        <f t="shared" si="4"/>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>26</v>
+      </c>
+      <c r="B285">
+        <v>46</v>
+      </c>
+      <c r="C285">
+        <v>43</v>
+      </c>
+      <c r="E285">
+        <f t="shared" si="4"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>22</v>
+      </c>
+      <c r="B286">
+        <v>54</v>
+      </c>
+      <c r="C286">
+        <v>43</v>
+      </c>
+      <c r="E286">
+        <f t="shared" si="4"/>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>22</v>
+      </c>
+      <c r="B287">
+        <v>48</v>
+      </c>
+      <c r="C287">
+        <v>40</v>
+      </c>
+      <c r="E287">
+        <f t="shared" si="4"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>22</v>
+      </c>
+      <c r="B288">
+        <v>41</v>
+      </c>
+      <c r="C288">
+        <v>39</v>
+      </c>
+      <c r="E288">
+        <f t="shared" si="4"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A289" s="2">
+        <v>31</v>
+      </c>
+      <c r="B289" s="2">
+        <v>41</v>
+      </c>
+      <c r="C289" s="2">
+        <v>59</v>
+      </c>
+      <c r="D289" s="2"/>
+      <c r="E289" s="2">
+        <f t="shared" si="4"/>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>28</v>
+      </c>
+      <c r="B290">
+        <v>25</v>
+      </c>
+      <c r="C290">
+        <v>46</v>
+      </c>
+      <c r="E290">
+        <f t="shared" si="4"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>24</v>
+      </c>
+      <c r="B291">
+        <v>34</v>
+      </c>
+      <c r="C291">
+        <v>38</v>
+      </c>
+      <c r="E291">
+        <f t="shared" si="4"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>20</v>
+      </c>
+      <c r="B292">
+        <v>42</v>
+      </c>
+      <c r="C292">
+        <v>38</v>
+      </c>
+      <c r="E292">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>20</v>
+      </c>
+      <c r="B293">
+        <v>36</v>
+      </c>
+      <c r="C293">
+        <v>35</v>
+      </c>
+      <c r="E293">
+        <f t="shared" si="4"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>20</v>
+      </c>
+      <c r="B294">
+        <v>29</v>
+      </c>
+      <c r="C294">
+        <v>34</v>
+      </c>
+      <c r="E294">
+        <f t="shared" si="4"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>29</v>
+      </c>
+      <c r="B295">
+        <v>29</v>
+      </c>
+      <c r="C295">
+        <v>54</v>
+      </c>
+      <c r="E295">
+        <f t="shared" si="4"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>38</v>
+      </c>
+      <c r="B296">
+        <v>29</v>
+      </c>
+      <c r="C296">
+        <v>44</v>
+      </c>
+      <c r="E296">
+        <f t="shared" si="4"/>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>34</v>
+      </c>
+      <c r="B297">
+        <v>38</v>
+      </c>
+      <c r="C297">
+        <v>36</v>
+      </c>
+      <c r="E297">
+        <f t="shared" si="4"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>30</v>
+      </c>
+      <c r="B298">
+        <v>46</v>
+      </c>
+      <c r="C298">
+        <v>36</v>
+      </c>
+      <c r="E298">
+        <f t="shared" si="4"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>30</v>
+      </c>
+      <c r="B299">
+        <v>40</v>
+      </c>
+      <c r="C299">
+        <v>33</v>
+      </c>
+      <c r="E299">
+        <f t="shared" si="4"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>30</v>
+      </c>
+      <c r="B300">
+        <v>33</v>
+      </c>
+      <c r="C300">
+        <v>32</v>
+      </c>
+      <c r="E300">
+        <f t="shared" si="4"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>39</v>
+      </c>
+      <c r="B301">
+        <v>33</v>
+      </c>
+      <c r="C301">
+        <v>52</v>
+      </c>
+      <c r="E301">
+        <f t="shared" si="4"/>
         <v>124</v>
       </c>
     </row>
+    <row r="302" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>37</v>
+      </c>
+      <c r="B302">
+        <v>36</v>
+      </c>
+      <c r="C302">
+        <v>49</v>
+      </c>
+      <c r="E302">
+        <f t="shared" si="4"/>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>33</v>
+      </c>
+      <c r="B303">
+        <v>45</v>
+      </c>
+      <c r="C303">
+        <v>41</v>
+      </c>
+      <c r="E303">
+        <f t="shared" si="4"/>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>29</v>
+      </c>
+      <c r="B304">
+        <v>53</v>
+      </c>
+      <c r="C304">
+        <v>41</v>
+      </c>
+      <c r="E304">
+        <f t="shared" si="4"/>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>29</v>
+      </c>
+      <c r="B305">
+        <v>47</v>
+      </c>
+      <c r="C305">
+        <v>38</v>
+      </c>
+      <c r="E305">
+        <f t="shared" si="4"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>29</v>
+      </c>
+      <c r="B306">
+        <v>40</v>
+      </c>
+      <c r="C306">
+        <v>37</v>
+      </c>
+      <c r="E306">
+        <f t="shared" si="4"/>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A307" s="2">
+        <v>38</v>
+      </c>
+      <c r="B307" s="2">
+        <v>40</v>
+      </c>
+      <c r="C307" s="2">
+        <v>57</v>
+      </c>
+      <c r="D307" s="2"/>
+      <c r="E307" s="2">
+        <f t="shared" si="4"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>26</v>
+      </c>
+      <c r="B308">
+        <v>28</v>
+      </c>
+      <c r="C308">
+        <v>50</v>
+      </c>
+      <c r="E308">
+        <f t="shared" si="4"/>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>22</v>
+      </c>
+      <c r="B309">
+        <v>37</v>
+      </c>
+      <c r="C309">
+        <v>42</v>
+      </c>
+      <c r="E309">
+        <f t="shared" si="4"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>18</v>
+      </c>
+      <c r="B310">
+        <v>45</v>
+      </c>
+      <c r="C310">
+        <v>42</v>
+      </c>
+      <c r="E310">
+        <f t="shared" si="4"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>18</v>
+      </c>
+      <c r="B311">
+        <v>39</v>
+      </c>
+      <c r="C311">
+        <v>39</v>
+      </c>
+      <c r="E311">
+        <f t="shared" si="4"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>18</v>
+      </c>
+      <c r="B312">
+        <v>32</v>
+      </c>
+      <c r="C312">
+        <v>38</v>
+      </c>
+      <c r="E312">
+        <f t="shared" si="4"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>27</v>
+      </c>
+      <c r="B313">
+        <v>32</v>
+      </c>
+      <c r="C313">
+        <v>58</v>
+      </c>
+      <c r="E313">
+        <f t="shared" si="4"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>27</v>
+      </c>
+      <c r="B314">
+        <v>20</v>
+      </c>
+      <c r="C314">
+        <v>51</v>
+      </c>
+      <c r="E314">
+        <f t="shared" si="4"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>23</v>
+      </c>
+      <c r="B315">
+        <v>29</v>
+      </c>
+      <c r="C315">
+        <v>43</v>
+      </c>
+      <c r="E315">
+        <f t="shared" si="4"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>19</v>
+      </c>
+      <c r="B316">
+        <v>37</v>
+      </c>
+      <c r="C316">
+        <v>43</v>
+      </c>
+      <c r="E316">
+        <f t="shared" si="4"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>19</v>
+      </c>
+      <c r="B317">
+        <v>31</v>
+      </c>
+      <c r="C317">
+        <v>40</v>
+      </c>
+      <c r="E317">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>19</v>
+      </c>
+      <c r="B318">
+        <v>24</v>
+      </c>
+      <c r="C318">
+        <v>39</v>
+      </c>
+      <c r="E318">
+        <f t="shared" si="4"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>28</v>
+      </c>
+      <c r="B319">
+        <v>24</v>
+      </c>
+      <c r="C319">
+        <v>59</v>
+      </c>
+      <c r="E319">
+        <f t="shared" si="4"/>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>28</v>
+      </c>
+      <c r="B320">
+        <v>32</v>
+      </c>
+      <c r="C320">
+        <v>47</v>
+      </c>
+      <c r="E320">
+        <f t="shared" si="4"/>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>24</v>
+      </c>
+      <c r="B321">
+        <v>41</v>
+      </c>
+      <c r="C321">
+        <v>39</v>
+      </c>
+      <c r="E321">
+        <f t="shared" si="4"/>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>20</v>
+      </c>
+      <c r="B322">
+        <v>49</v>
+      </c>
+      <c r="C322">
+        <v>39</v>
+      </c>
+      <c r="E322">
+        <f t="shared" si="4"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>20</v>
+      </c>
+      <c r="B323">
+        <v>43</v>
+      </c>
+      <c r="C323">
+        <v>36</v>
+      </c>
+      <c r="E323">
+        <f t="shared" ref="E323:E386" si="5">SUM(A323:C323)</f>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>20</v>
+      </c>
+      <c r="B324">
+        <v>36</v>
+      </c>
+      <c r="C324">
+        <v>35</v>
+      </c>
+      <c r="E324">
+        <f t="shared" si="5"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>29</v>
+      </c>
+      <c r="B325">
+        <v>36</v>
+      </c>
+      <c r="C325">
+        <v>55</v>
+      </c>
+      <c r="E325">
+        <f t="shared" si="5"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>22</v>
+      </c>
+      <c r="B326">
+        <v>28</v>
+      </c>
+      <c r="C326">
+        <v>44</v>
+      </c>
+      <c r="E326">
+        <f t="shared" si="5"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>18</v>
+      </c>
+      <c r="B327">
+        <v>37</v>
+      </c>
+      <c r="C327">
+        <v>36</v>
+      </c>
+      <c r="E327">
+        <f t="shared" si="5"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>14</v>
+      </c>
+      <c r="B328">
+        <v>45</v>
+      </c>
+      <c r="C328">
+        <v>36</v>
+      </c>
+      <c r="E328">
+        <f t="shared" si="5"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>14</v>
+      </c>
+      <c r="B329">
+        <v>39</v>
+      </c>
+      <c r="C329">
+        <v>33</v>
+      </c>
+      <c r="E329">
+        <f t="shared" si="5"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>14</v>
+      </c>
+      <c r="B330">
+        <v>32</v>
+      </c>
+      <c r="C330">
+        <v>32</v>
+      </c>
+      <c r="E330">
+        <f t="shared" si="5"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>23</v>
+      </c>
+      <c r="B331">
+        <v>32</v>
+      </c>
+      <c r="C331">
+        <v>52</v>
+      </c>
+      <c r="E331">
+        <f t="shared" si="5"/>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <v>22</v>
+      </c>
+      <c r="B332">
+        <v>38</v>
+      </c>
+      <c r="C332">
+        <v>61</v>
+      </c>
+      <c r="E332">
+        <f t="shared" si="5"/>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>18</v>
+      </c>
+      <c r="B333">
+        <v>47</v>
+      </c>
+      <c r="C333">
+        <v>53</v>
+      </c>
+      <c r="E333">
+        <f t="shared" si="5"/>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>14</v>
+      </c>
+      <c r="B334">
+        <v>55</v>
+      </c>
+      <c r="C334">
+        <v>53</v>
+      </c>
+      <c r="E334">
+        <f t="shared" si="5"/>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>14</v>
+      </c>
+      <c r="B335">
+        <v>49</v>
+      </c>
+      <c r="C335">
+        <v>50</v>
+      </c>
+      <c r="E335">
+        <f t="shared" si="5"/>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>14</v>
+      </c>
+      <c r="B336">
+        <v>42</v>
+      </c>
+      <c r="C336">
+        <v>49</v>
+      </c>
+      <c r="E336">
+        <f t="shared" si="5"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A337" s="2">
+        <v>23</v>
+      </c>
+      <c r="B337" s="2">
+        <v>42</v>
+      </c>
+      <c r="C337" s="2">
+        <v>69</v>
+      </c>
+      <c r="D337" s="2"/>
+      <c r="E337" s="2">
+        <f t="shared" si="5"/>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>31</v>
+      </c>
+      <c r="B338">
+        <v>21</v>
+      </c>
+      <c r="C338">
+        <v>39</v>
+      </c>
+      <c r="E338">
+        <f t="shared" si="5"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <v>27</v>
+      </c>
+      <c r="B339">
+        <v>30</v>
+      </c>
+      <c r="C339">
+        <v>31</v>
+      </c>
+      <c r="E339">
+        <f t="shared" si="5"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>23</v>
+      </c>
+      <c r="B340">
+        <v>38</v>
+      </c>
+      <c r="C340">
+        <v>31</v>
+      </c>
+      <c r="E340">
+        <f t="shared" si="5"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <v>23</v>
+      </c>
+      <c r="B341">
+        <v>32</v>
+      </c>
+      <c r="C341">
+        <v>28</v>
+      </c>
+      <c r="E341">
+        <f t="shared" si="5"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <v>23</v>
+      </c>
+      <c r="B342">
+        <v>25</v>
+      </c>
+      <c r="C342">
+        <v>27</v>
+      </c>
+      <c r="E342">
+        <f t="shared" si="5"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <v>32</v>
+      </c>
+      <c r="B343">
+        <v>25</v>
+      </c>
+      <c r="C343">
+        <v>47</v>
+      </c>
+      <c r="E343">
+        <f t="shared" si="5"/>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <v>41</v>
+      </c>
+      <c r="B344">
+        <v>25</v>
+      </c>
+      <c r="C344">
+        <v>37</v>
+      </c>
+      <c r="E344">
+        <f t="shared" si="5"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <v>37</v>
+      </c>
+      <c r="B345">
+        <v>34</v>
+      </c>
+      <c r="C345">
+        <v>29</v>
+      </c>
+      <c r="E345">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <v>33</v>
+      </c>
+      <c r="B346">
+        <v>42</v>
+      </c>
+      <c r="C346">
+        <v>29</v>
+      </c>
+      <c r="E346">
+        <f t="shared" si="5"/>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <v>33</v>
+      </c>
+      <c r="B347">
+        <v>36</v>
+      </c>
+      <c r="C347">
+        <v>26</v>
+      </c>
+      <c r="E347">
+        <f t="shared" si="5"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <v>33</v>
+      </c>
+      <c r="B348">
+        <v>29</v>
+      </c>
+      <c r="C348">
+        <v>25</v>
+      </c>
+      <c r="E348">
+        <f t="shared" si="5"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <v>42</v>
+      </c>
+      <c r="B349">
+        <v>29</v>
+      </c>
+      <c r="C349">
+        <v>45</v>
+      </c>
+      <c r="E349">
+        <f t="shared" si="5"/>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A350">
+        <v>40</v>
+      </c>
+      <c r="B350">
+        <v>32</v>
+      </c>
+      <c r="C350">
+        <v>42</v>
+      </c>
+      <c r="E350">
+        <f t="shared" si="5"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A351">
+        <v>36</v>
+      </c>
+      <c r="B351">
+        <v>41</v>
+      </c>
+      <c r="C351">
+        <v>34</v>
+      </c>
+      <c r="E351">
+        <f t="shared" si="5"/>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A352">
+        <v>32</v>
+      </c>
+      <c r="B352">
+        <v>49</v>
+      </c>
+      <c r="C352">
+        <v>34</v>
+      </c>
+      <c r="E352">
+        <f t="shared" si="5"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A353">
+        <v>32</v>
+      </c>
+      <c r="B353">
+        <v>43</v>
+      </c>
+      <c r="C353">
+        <v>31</v>
+      </c>
+      <c r="E353">
+        <f t="shared" si="5"/>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <v>32</v>
+      </c>
+      <c r="B354">
+        <v>36</v>
+      </c>
+      <c r="C354">
+        <v>30</v>
+      </c>
+      <c r="E354">
+        <f t="shared" si="5"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A355">
+        <v>41</v>
+      </c>
+      <c r="B355">
+        <v>36</v>
+      </c>
+      <c r="C355">
+        <v>50</v>
+      </c>
+      <c r="E355">
+        <f t="shared" si="5"/>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A356">
+        <v>29</v>
+      </c>
+      <c r="B356">
+        <v>24</v>
+      </c>
+      <c r="C356">
+        <v>43</v>
+      </c>
+      <c r="E356">
+        <f t="shared" si="5"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A357">
+        <v>25</v>
+      </c>
+      <c r="B357">
+        <v>33</v>
+      </c>
+      <c r="C357">
+        <v>35</v>
+      </c>
+      <c r="E357">
+        <f t="shared" si="5"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A358">
+        <v>21</v>
+      </c>
+      <c r="B358">
+        <v>41</v>
+      </c>
+      <c r="C358">
+        <v>35</v>
+      </c>
+      <c r="E358">
+        <f t="shared" si="5"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A359">
+        <v>21</v>
+      </c>
+      <c r="B359">
+        <v>35</v>
+      </c>
+      <c r="C359">
+        <v>32</v>
+      </c>
+      <c r="E359">
+        <f t="shared" si="5"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <v>21</v>
+      </c>
+      <c r="B360">
+        <v>28</v>
+      </c>
+      <c r="C360">
+        <v>31</v>
+      </c>
+      <c r="E360">
+        <f t="shared" si="5"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A361">
+        <v>30</v>
+      </c>
+      <c r="B361">
+        <v>28</v>
+      </c>
+      <c r="C361">
+        <v>51</v>
+      </c>
+      <c r="E361">
+        <f t="shared" si="5"/>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A362">
+        <v>30</v>
+      </c>
+      <c r="B362">
+        <v>16</v>
+      </c>
+      <c r="C362">
+        <v>44</v>
+      </c>
+      <c r="E362">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A363">
+        <v>26</v>
+      </c>
+      <c r="B363">
+        <v>25</v>
+      </c>
+      <c r="C363">
+        <v>36</v>
+      </c>
+      <c r="E363">
+        <f t="shared" si="5"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A364">
+        <v>22</v>
+      </c>
+      <c r="B364">
+        <v>33</v>
+      </c>
+      <c r="C364">
+        <v>36</v>
+      </c>
+      <c r="E364">
+        <f t="shared" si="5"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A365">
+        <v>22</v>
+      </c>
+      <c r="B365">
+        <v>27</v>
+      </c>
+      <c r="C365">
+        <v>33</v>
+      </c>
+      <c r="E365">
+        <f t="shared" si="5"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A366">
+        <v>22</v>
+      </c>
+      <c r="B366">
+        <v>20</v>
+      </c>
+      <c r="C366">
+        <v>32</v>
+      </c>
+      <c r="E366">
+        <f t="shared" si="5"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A367">
+        <v>31</v>
+      </c>
+      <c r="B367">
+        <v>20</v>
+      </c>
+      <c r="C367">
+        <v>52</v>
+      </c>
+      <c r="E367">
+        <f t="shared" si="5"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A368">
+        <v>31</v>
+      </c>
+      <c r="B368">
+        <v>28</v>
+      </c>
+      <c r="C368">
+        <v>40</v>
+      </c>
+      <c r="E368">
+        <f t="shared" si="5"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A369">
+        <v>27</v>
+      </c>
+      <c r="B369">
+        <v>37</v>
+      </c>
+      <c r="C369">
+        <v>32</v>
+      </c>
+      <c r="E369">
+        <f t="shared" si="5"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A370">
+        <v>23</v>
+      </c>
+      <c r="B370">
+        <v>45</v>
+      </c>
+      <c r="C370">
+        <v>32</v>
+      </c>
+      <c r="E370">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A371">
+        <v>23</v>
+      </c>
+      <c r="B371">
+        <v>39</v>
+      </c>
+      <c r="C371">
+        <v>29</v>
+      </c>
+      <c r="E371">
+        <f t="shared" si="5"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A372">
+        <v>23</v>
+      </c>
+      <c r="B372">
+        <v>32</v>
+      </c>
+      <c r="C372">
+        <v>28</v>
+      </c>
+      <c r="E372">
+        <f t="shared" si="5"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A373">
+        <v>32</v>
+      </c>
+      <c r="B373">
+        <v>32</v>
+      </c>
+      <c r="C373">
+        <v>48</v>
+      </c>
+      <c r="E373">
+        <f t="shared" si="5"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A374">
+        <v>25</v>
+      </c>
+      <c r="B374">
+        <v>24</v>
+      </c>
+      <c r="C374">
+        <v>37</v>
+      </c>
+      <c r="E374">
+        <f t="shared" si="5"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A375">
+        <v>21</v>
+      </c>
+      <c r="B375">
+        <v>33</v>
+      </c>
+      <c r="C375">
+        <v>29</v>
+      </c>
+      <c r="E375">
+        <f t="shared" si="5"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A376">
+        <v>17</v>
+      </c>
+      <c r="B376">
+        <v>41</v>
+      </c>
+      <c r="C376">
+        <v>29</v>
+      </c>
+      <c r="E376">
+        <f t="shared" si="5"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A377">
+        <v>17</v>
+      </c>
+      <c r="B377">
+        <v>35</v>
+      </c>
+      <c r="C377">
+        <v>26</v>
+      </c>
+      <c r="E377">
+        <f t="shared" si="5"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A378">
+        <v>17</v>
+      </c>
+      <c r="B378">
+        <v>28</v>
+      </c>
+      <c r="C378">
+        <v>25</v>
+      </c>
+      <c r="E378">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A379">
+        <v>26</v>
+      </c>
+      <c r="B379">
+        <v>28</v>
+      </c>
+      <c r="C379">
+        <v>45</v>
+      </c>
+      <c r="E379">
+        <f t="shared" si="5"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A380">
+        <v>25</v>
+      </c>
+      <c r="B380">
+        <v>34</v>
+      </c>
+      <c r="C380">
+        <v>54</v>
+      </c>
+      <c r="E380">
+        <f t="shared" si="5"/>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A381">
+        <v>21</v>
+      </c>
+      <c r="B381">
+        <v>43</v>
+      </c>
+      <c r="C381">
+        <v>46</v>
+      </c>
+      <c r="E381">
+        <f t="shared" si="5"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A382">
+        <v>17</v>
+      </c>
+      <c r="B382">
+        <v>51</v>
+      </c>
+      <c r="C382">
+        <v>46</v>
+      </c>
+      <c r="E382">
+        <f t="shared" si="5"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A383">
+        <v>17</v>
+      </c>
+      <c r="B383">
+        <v>45</v>
+      </c>
+      <c r="C383">
+        <v>43</v>
+      </c>
+      <c r="E383">
+        <f t="shared" si="5"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A384">
+        <v>17</v>
+      </c>
+      <c r="B384">
+        <v>38</v>
+      </c>
+      <c r="C384">
+        <v>42</v>
+      </c>
+      <c r="E384">
+        <f t="shared" si="5"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A385">
+        <v>26</v>
+      </c>
+      <c r="B385">
+        <v>38</v>
+      </c>
+      <c r="C385">
+        <v>62</v>
+      </c>
+      <c r="E385">
+        <f t="shared" si="5"/>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A386">
+        <v>33</v>
+      </c>
+      <c r="B386">
+        <v>11</v>
+      </c>
+      <c r="C386">
+        <v>40</v>
+      </c>
+      <c r="E386">
+        <f t="shared" si="5"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A387">
+        <v>29</v>
+      </c>
+      <c r="B387">
+        <v>20</v>
+      </c>
+      <c r="C387">
+        <v>32</v>
+      </c>
+      <c r="E387">
+        <f t="shared" ref="E387:E450" si="6">SUM(A387:C387)</f>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A388">
+        <v>25</v>
+      </c>
+      <c r="B388">
+        <v>28</v>
+      </c>
+      <c r="C388">
+        <v>32</v>
+      </c>
+      <c r="E388">
+        <f t="shared" si="6"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A389">
+        <v>25</v>
+      </c>
+      <c r="B389">
+        <v>22</v>
+      </c>
+      <c r="C389">
+        <v>29</v>
+      </c>
+      <c r="E389">
+        <f t="shared" si="6"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A390">
+        <v>25</v>
+      </c>
+      <c r="B390">
+        <v>15</v>
+      </c>
+      <c r="C390">
+        <v>28</v>
+      </c>
+      <c r="E390">
+        <f t="shared" si="6"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A391">
+        <v>34</v>
+      </c>
+      <c r="B391">
+        <v>15</v>
+      </c>
+      <c r="C391">
+        <v>48</v>
+      </c>
+      <c r="E391">
+        <f t="shared" si="6"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A392">
+        <v>43</v>
+      </c>
+      <c r="B392">
+        <v>15</v>
+      </c>
+      <c r="C392">
+        <v>38</v>
+      </c>
+      <c r="E392">
+        <f t="shared" si="6"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A393">
+        <v>39</v>
+      </c>
+      <c r="B393">
+        <v>24</v>
+      </c>
+      <c r="C393">
+        <v>30</v>
+      </c>
+      <c r="E393">
+        <f t="shared" si="6"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A394">
+        <v>35</v>
+      </c>
+      <c r="B394">
+        <v>32</v>
+      </c>
+      <c r="C394">
+        <v>30</v>
+      </c>
+      <c r="E394">
+        <f t="shared" si="6"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A395">
+        <v>35</v>
+      </c>
+      <c r="B395">
+        <v>26</v>
+      </c>
+      <c r="C395">
+        <v>27</v>
+      </c>
+      <c r="E395">
+        <f t="shared" si="6"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A396">
+        <v>35</v>
+      </c>
+      <c r="B396">
+        <v>19</v>
+      </c>
+      <c r="C396">
+        <v>26</v>
+      </c>
+      <c r="E396">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A397">
+        <v>44</v>
+      </c>
+      <c r="B397">
+        <v>19</v>
+      </c>
+      <c r="C397">
+        <v>46</v>
+      </c>
+      <c r="E397">
+        <f t="shared" si="6"/>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A398">
+        <v>42</v>
+      </c>
+      <c r="B398">
+        <v>22</v>
+      </c>
+      <c r="C398">
+        <v>43</v>
+      </c>
+      <c r="E398">
+        <f t="shared" si="6"/>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A399">
+        <v>38</v>
+      </c>
+      <c r="B399">
+        <v>31</v>
+      </c>
+      <c r="C399">
+        <v>35</v>
+      </c>
+      <c r="E399">
+        <f t="shared" si="6"/>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A400">
+        <v>34</v>
+      </c>
+      <c r="B400">
+        <v>39</v>
+      </c>
+      <c r="C400">
+        <v>35</v>
+      </c>
+      <c r="E400">
+        <f t="shared" si="6"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A401">
+        <v>34</v>
+      </c>
+      <c r="B401">
+        <v>33</v>
+      </c>
+      <c r="C401">
+        <v>32</v>
+      </c>
+      <c r="E401">
+        <f t="shared" si="6"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A402">
+        <v>34</v>
+      </c>
+      <c r="B402">
+        <v>26</v>
+      </c>
+      <c r="C402">
+        <v>31</v>
+      </c>
+      <c r="E402">
+        <f t="shared" si="6"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A403">
+        <v>43</v>
+      </c>
+      <c r="B403">
+        <v>26</v>
+      </c>
+      <c r="C403">
+        <v>51</v>
+      </c>
+      <c r="E403">
+        <f t="shared" si="6"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A404">
+        <v>31</v>
+      </c>
+      <c r="B404">
+        <v>14</v>
+      </c>
+      <c r="C404">
+        <v>44</v>
+      </c>
+      <c r="E404">
+        <f t="shared" si="6"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A405">
+        <v>27</v>
+      </c>
+      <c r="B405">
+        <v>23</v>
+      </c>
+      <c r="C405">
+        <v>36</v>
+      </c>
+      <c r="E405">
+        <f t="shared" si="6"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A406">
+        <v>23</v>
+      </c>
+      <c r="B406">
+        <v>31</v>
+      </c>
+      <c r="C406">
+        <v>36</v>
+      </c>
+      <c r="E406">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A407">
+        <v>23</v>
+      </c>
+      <c r="B407">
+        <v>25</v>
+      </c>
+      <c r="C407">
+        <v>33</v>
+      </c>
+      <c r="E407">
+        <f t="shared" si="6"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A408">
+        <v>23</v>
+      </c>
+      <c r="B408">
+        <v>18</v>
+      </c>
+      <c r="C408">
+        <v>32</v>
+      </c>
+      <c r="E408">
+        <f t="shared" si="6"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A409">
+        <v>32</v>
+      </c>
+      <c r="B409">
+        <v>18</v>
+      </c>
+      <c r="C409">
+        <v>52</v>
+      </c>
+      <c r="E409">
+        <f t="shared" si="6"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A410">
+        <v>32</v>
+      </c>
+      <c r="B410">
+        <v>6</v>
+      </c>
+      <c r="C410">
+        <v>45</v>
+      </c>
+      <c r="E410">
+        <f t="shared" si="6"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A411">
+        <v>28</v>
+      </c>
+      <c r="B411">
+        <v>15</v>
+      </c>
+      <c r="C411">
+        <v>37</v>
+      </c>
+      <c r="E411">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A412">
+        <v>24</v>
+      </c>
+      <c r="B412">
+        <v>23</v>
+      </c>
+      <c r="C412">
+        <v>37</v>
+      </c>
+      <c r="E412">
+        <f t="shared" si="6"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A413">
+        <v>24</v>
+      </c>
+      <c r="B413">
+        <v>17</v>
+      </c>
+      <c r="C413">
+        <v>34</v>
+      </c>
+      <c r="E413">
+        <f t="shared" si="6"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A414">
+        <v>24</v>
+      </c>
+      <c r="B414">
+        <v>10</v>
+      </c>
+      <c r="C414">
+        <v>33</v>
+      </c>
+      <c r="E414">
+        <f t="shared" si="6"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A415">
+        <v>33</v>
+      </c>
+      <c r="B415">
+        <v>10</v>
+      </c>
+      <c r="C415">
+        <v>53</v>
+      </c>
+      <c r="E415">
+        <f t="shared" si="6"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A416">
+        <v>33</v>
+      </c>
+      <c r="B416">
+        <v>18</v>
+      </c>
+      <c r="C416">
+        <v>41</v>
+      </c>
+      <c r="E416">
+        <f t="shared" si="6"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A417">
+        <v>29</v>
+      </c>
+      <c r="B417">
+        <v>27</v>
+      </c>
+      <c r="C417">
+        <v>33</v>
+      </c>
+      <c r="E417">
+        <f t="shared" si="6"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A418">
+        <v>25</v>
+      </c>
+      <c r="B418">
+        <v>35</v>
+      </c>
+      <c r="C418">
+        <v>33</v>
+      </c>
+      <c r="E418">
+        <f t="shared" si="6"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A419">
+        <v>25</v>
+      </c>
+      <c r="B419">
+        <v>29</v>
+      </c>
+      <c r="C419">
+        <v>30</v>
+      </c>
+      <c r="E419">
+        <f t="shared" si="6"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A420">
+        <v>25</v>
+      </c>
+      <c r="B420">
+        <v>22</v>
+      </c>
+      <c r="C420">
+        <v>29</v>
+      </c>
+      <c r="E420">
+        <f t="shared" si="6"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A421">
+        <v>34</v>
+      </c>
+      <c r="B421">
+        <v>22</v>
+      </c>
+      <c r="C421">
+        <v>49</v>
+      </c>
+      <c r="E421">
+        <f t="shared" si="6"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A422">
+        <v>27</v>
+      </c>
+      <c r="B422">
+        <v>14</v>
+      </c>
+      <c r="C422">
+        <v>38</v>
+      </c>
+      <c r="E422">
+        <f t="shared" si="6"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A423">
+        <v>23</v>
+      </c>
+      <c r="B423">
+        <v>23</v>
+      </c>
+      <c r="C423">
+        <v>30</v>
+      </c>
+      <c r="E423">
+        <f t="shared" si="6"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A424">
+        <v>19</v>
+      </c>
+      <c r="B424">
+        <v>31</v>
+      </c>
+      <c r="C424">
+        <v>30</v>
+      </c>
+      <c r="E424">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A425">
+        <v>19</v>
+      </c>
+      <c r="B425">
+        <v>25</v>
+      </c>
+      <c r="C425">
+        <v>27</v>
+      </c>
+      <c r="E425">
+        <f t="shared" si="6"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A426">
+        <v>19</v>
+      </c>
+      <c r="B426">
+        <v>18</v>
+      </c>
+      <c r="C426">
+        <v>26</v>
+      </c>
+      <c r="E426">
+        <f t="shared" si="6"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A427">
+        <v>28</v>
+      </c>
+      <c r="B427">
+        <v>18</v>
+      </c>
+      <c r="C427">
+        <v>46</v>
+      </c>
+      <c r="E427">
+        <f t="shared" si="6"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A428">
+        <v>27</v>
+      </c>
+      <c r="B428">
+        <v>24</v>
+      </c>
+      <c r="C428">
+        <v>55</v>
+      </c>
+      <c r="E428">
+        <f t="shared" si="6"/>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A429">
+        <v>23</v>
+      </c>
+      <c r="B429">
+        <v>33</v>
+      </c>
+      <c r="C429">
+        <v>47</v>
+      </c>
+      <c r="E429">
+        <f t="shared" si="6"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A430">
+        <v>19</v>
+      </c>
+      <c r="B430">
+        <v>41</v>
+      </c>
+      <c r="C430">
+        <v>47</v>
+      </c>
+      <c r="E430">
+        <f t="shared" si="6"/>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A431">
+        <v>19</v>
+      </c>
+      <c r="B431">
+        <v>35</v>
+      </c>
+      <c r="C431">
+        <v>44</v>
+      </c>
+      <c r="E431">
+        <f t="shared" si="6"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A432">
+        <v>19</v>
+      </c>
+      <c r="B432">
+        <v>28</v>
+      </c>
+      <c r="C432">
+        <v>43</v>
+      </c>
+      <c r="E432">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A433">
+        <v>28</v>
+      </c>
+      <c r="B433">
+        <v>28</v>
+      </c>
+      <c r="C433">
+        <v>63</v>
+      </c>
+      <c r="E433">
+        <f t="shared" si="6"/>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A434">
+        <v>32</v>
+      </c>
+      <c r="B434">
+        <v>11</v>
+      </c>
+      <c r="C434">
+        <v>37</v>
+      </c>
+      <c r="E434">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A435">
+        <v>28</v>
+      </c>
+      <c r="B435">
+        <v>20</v>
+      </c>
+      <c r="C435">
+        <v>29</v>
+      </c>
+      <c r="E435">
+        <f t="shared" si="6"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A436">
+        <v>24</v>
+      </c>
+      <c r="B436">
+        <v>28</v>
+      </c>
+      <c r="C436">
+        <v>29</v>
+      </c>
+      <c r="E436">
+        <f t="shared" si="6"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A437">
+        <v>24</v>
+      </c>
+      <c r="B437">
+        <v>22</v>
+      </c>
+      <c r="C437">
+        <v>26</v>
+      </c>
+      <c r="E437">
+        <f t="shared" si="6"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A438">
+        <v>24</v>
+      </c>
+      <c r="B438">
+        <v>15</v>
+      </c>
+      <c r="C438">
+        <v>25</v>
+      </c>
+      <c r="E438">
+        <f t="shared" si="6"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A439">
+        <v>33</v>
+      </c>
+      <c r="B439">
+        <v>15</v>
+      </c>
+      <c r="C439">
+        <v>45</v>
+      </c>
+      <c r="E439">
+        <f t="shared" si="6"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A440">
+        <v>42</v>
+      </c>
+      <c r="B440">
+        <v>15</v>
+      </c>
+      <c r="C440">
+        <v>35</v>
+      </c>
+      <c r="E440">
+        <f t="shared" si="6"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A441">
+        <v>38</v>
+      </c>
+      <c r="B441">
+        <v>24</v>
+      </c>
+      <c r="C441">
+        <v>27</v>
+      </c>
+      <c r="E441">
+        <f t="shared" si="6"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A442">
+        <v>34</v>
+      </c>
+      <c r="B442">
+        <v>32</v>
+      </c>
+      <c r="C442">
+        <v>27</v>
+      </c>
+      <c r="E442">
+        <f t="shared" si="6"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A443">
+        <v>34</v>
+      </c>
+      <c r="B443">
+        <v>26</v>
+      </c>
+      <c r="C443">
+        <v>24</v>
+      </c>
+      <c r="E443">
+        <f t="shared" si="6"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A444">
+        <v>34</v>
+      </c>
+      <c r="B444">
+        <v>19</v>
+      </c>
+      <c r="C444">
+        <v>23</v>
+      </c>
+      <c r="E444">
+        <f t="shared" si="6"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A445">
+        <v>43</v>
+      </c>
+      <c r="B445">
+        <v>19</v>
+      </c>
+      <c r="C445">
+        <v>43</v>
+      </c>
+      <c r="E445">
+        <f t="shared" si="6"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A446">
+        <v>41</v>
+      </c>
+      <c r="B446">
+        <v>22</v>
+      </c>
+      <c r="C446">
+        <v>40</v>
+      </c>
+      <c r="E446">
+        <f t="shared" si="6"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A447">
+        <v>37</v>
+      </c>
+      <c r="B447">
+        <v>31</v>
+      </c>
+      <c r="C447">
+        <v>32</v>
+      </c>
+      <c r="E447">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A448">
+        <v>33</v>
+      </c>
+      <c r="B448">
+        <v>39</v>
+      </c>
+      <c r="C448">
+        <v>32</v>
+      </c>
+      <c r="E448">
+        <f t="shared" si="6"/>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A449">
+        <v>33</v>
+      </c>
+      <c r="B449">
+        <v>33</v>
+      </c>
+      <c r="C449">
+        <v>29</v>
+      </c>
+      <c r="E449">
+        <f t="shared" si="6"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A450">
+        <v>33</v>
+      </c>
+      <c r="B450">
+        <v>26</v>
+      </c>
+      <c r="C450">
+        <v>28</v>
+      </c>
+      <c r="E450">
+        <f t="shared" si="6"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A451">
+        <v>42</v>
+      </c>
+      <c r="B451">
+        <v>26</v>
+      </c>
+      <c r="C451">
+        <v>48</v>
+      </c>
+      <c r="E451">
+        <f t="shared" ref="E451:E481" si="7">SUM(A451:C451)</f>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A452">
+        <v>30</v>
+      </c>
+      <c r="B452">
+        <v>14</v>
+      </c>
+      <c r="C452">
+        <v>41</v>
+      </c>
+      <c r="E452">
+        <f t="shared" si="7"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A453">
+        <v>26</v>
+      </c>
+      <c r="B453">
+        <v>23</v>
+      </c>
+      <c r="C453">
+        <v>33</v>
+      </c>
+      <c r="E453">
+        <f t="shared" si="7"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A454">
+        <v>22</v>
+      </c>
+      <c r="B454">
+        <v>31</v>
+      </c>
+      <c r="C454">
+        <v>33</v>
+      </c>
+      <c r="E454">
+        <f t="shared" si="7"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A455">
+        <v>22</v>
+      </c>
+      <c r="B455">
+        <v>25</v>
+      </c>
+      <c r="C455">
+        <v>30</v>
+      </c>
+      <c r="E455">
+        <f t="shared" si="7"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A456">
+        <v>22</v>
+      </c>
+      <c r="B456">
+        <v>18</v>
+      </c>
+      <c r="C456">
+        <v>29</v>
+      </c>
+      <c r="E456">
+        <f t="shared" si="7"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A457">
+        <v>31</v>
+      </c>
+      <c r="B457">
+        <v>18</v>
+      </c>
+      <c r="C457">
+        <v>49</v>
+      </c>
+      <c r="E457">
+        <f t="shared" si="7"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A458">
+        <v>31</v>
+      </c>
+      <c r="B458">
+        <v>6</v>
+      </c>
+      <c r="C458">
+        <v>42</v>
+      </c>
+      <c r="E458">
+        <f t="shared" si="7"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A459">
+        <v>27</v>
+      </c>
+      <c r="B459">
+        <v>15</v>
+      </c>
+      <c r="C459">
+        <v>34</v>
+      </c>
+      <c r="E459">
+        <f t="shared" si="7"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A460">
+        <v>23</v>
+      </c>
+      <c r="B460">
+        <v>23</v>
+      </c>
+      <c r="C460">
+        <v>34</v>
+      </c>
+      <c r="E460">
+        <f t="shared" si="7"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A461">
+        <v>23</v>
+      </c>
+      <c r="B461">
+        <v>17</v>
+      </c>
+      <c r="C461">
+        <v>31</v>
+      </c>
+      <c r="E461">
+        <f t="shared" si="7"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A462">
+        <v>23</v>
+      </c>
+      <c r="B462">
+        <v>10</v>
+      </c>
+      <c r="C462">
+        <v>30</v>
+      </c>
+      <c r="E462">
+        <f t="shared" si="7"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A463">
+        <v>32</v>
+      </c>
+      <c r="B463">
+        <v>10</v>
+      </c>
+      <c r="C463">
+        <v>50</v>
+      </c>
+      <c r="E463">
+        <f t="shared" si="7"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A464">
+        <v>32</v>
+      </c>
+      <c r="B464">
+        <v>18</v>
+      </c>
+      <c r="C464">
+        <v>38</v>
+      </c>
+      <c r="E464">
+        <f t="shared" si="7"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A465">
+        <v>28</v>
+      </c>
+      <c r="B465">
+        <v>27</v>
+      </c>
+      <c r="C465">
+        <v>30</v>
+      </c>
+      <c r="E465">
+        <f t="shared" si="7"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A466">
+        <v>24</v>
+      </c>
+      <c r="B466">
+        <v>35</v>
+      </c>
+      <c r="C466">
+        <v>30</v>
+      </c>
+      <c r="E466">
+        <f t="shared" si="7"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A467">
+        <v>24</v>
+      </c>
+      <c r="B467">
+        <v>29</v>
+      </c>
+      <c r="C467">
+        <v>27</v>
+      </c>
+      <c r="E467">
+        <f t="shared" si="7"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A468">
+        <v>24</v>
+      </c>
+      <c r="B468">
+        <v>22</v>
+      </c>
+      <c r="C468">
+        <v>26</v>
+      </c>
+      <c r="E468">
+        <f t="shared" si="7"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A469">
+        <v>33</v>
+      </c>
+      <c r="B469">
+        <v>22</v>
+      </c>
+      <c r="C469">
+        <v>46</v>
+      </c>
+      <c r="E469">
+        <f t="shared" si="7"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A470">
+        <v>26</v>
+      </c>
+      <c r="B470">
+        <v>14</v>
+      </c>
+      <c r="C470">
+        <v>35</v>
+      </c>
+      <c r="E470">
+        <f t="shared" si="7"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A471">
+        <v>22</v>
+      </c>
+      <c r="B471">
+        <v>23</v>
+      </c>
+      <c r="C471">
+        <v>27</v>
+      </c>
+      <c r="E471">
+        <f t="shared" si="7"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A472">
+        <v>18</v>
+      </c>
+      <c r="B472">
+        <v>31</v>
+      </c>
+      <c r="C472">
+        <v>27</v>
+      </c>
+      <c r="E472">
+        <f t="shared" si="7"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A473">
+        <v>18</v>
+      </c>
+      <c r="B473">
+        <v>25</v>
+      </c>
+      <c r="C473">
+        <v>24</v>
+      </c>
+      <c r="E473">
+        <f t="shared" si="7"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A474">
+        <v>18</v>
+      </c>
+      <c r="B474">
+        <v>18</v>
+      </c>
+      <c r="C474">
+        <v>23</v>
+      </c>
+      <c r="E474">
+        <f t="shared" si="7"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A475">
+        <v>27</v>
+      </c>
+      <c r="B475">
+        <v>18</v>
+      </c>
+      <c r="C475">
+        <v>43</v>
+      </c>
+      <c r="E475">
+        <f t="shared" si="7"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A476">
+        <v>26</v>
+      </c>
+      <c r="B476">
+        <v>24</v>
+      </c>
+      <c r="C476">
+        <v>52</v>
+      </c>
+      <c r="E476">
+        <f t="shared" si="7"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A477">
+        <v>22</v>
+      </c>
+      <c r="B477">
+        <v>33</v>
+      </c>
+      <c r="C477">
+        <v>44</v>
+      </c>
+      <c r="E477">
+        <f t="shared" si="7"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A478">
+        <v>18</v>
+      </c>
+      <c r="B478">
+        <v>41</v>
+      </c>
+      <c r="C478">
+        <v>44</v>
+      </c>
+      <c r="E478">
+        <f t="shared" si="7"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A479">
+        <v>18</v>
+      </c>
+      <c r="B479">
+        <v>35</v>
+      </c>
+      <c r="C479">
+        <v>41</v>
+      </c>
+      <c r="E479">
+        <f t="shared" si="7"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A480">
+        <v>18</v>
+      </c>
+      <c r="B480">
+        <v>28</v>
+      </c>
+      <c r="C480">
+        <v>40</v>
+      </c>
+      <c r="E480">
+        <f t="shared" si="7"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A481">
+        <v>27</v>
+      </c>
+      <c r="B481">
+        <v>28</v>
+      </c>
+      <c r="C481">
+        <v>60</v>
+      </c>
+      <c r="E481">
+        <f t="shared" si="7"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A483">
+        <f>MAX(A2:A481)</f>
+        <v>53</v>
+      </c>
+      <c r="B483">
+        <f t="shared" ref="B483:E483" si="8">MAX(B2:B481)</f>
+        <v>55</v>
+      </c>
+      <c r="C483">
+        <f t="shared" si="8"/>
+        <v>69</v>
+      </c>
+      <c r="E483">
+        <f t="shared" si="8"/>
+        <v>136</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:E481">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="49"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>